--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-2.525447878444827</v>
+        <v>-2.578184724194803</v>
       </c>
       <c r="D2">
-        <v>0.01158550711770889</v>
+        <v>0.0144367625963806</v>
       </c>
       <c r="E2">
         <v>0.8091217199290309</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.197395591753353</v>
+        <v>-1.260504182493561</v>
       </c>
       <c r="D3">
-        <v>0.2312087247371728</v>
+        <v>0.2160698029907064</v>
       </c>
       <c r="E3">
         <v>0.8091217199290309</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.603034672928379</v>
+        <v>-0.775234558306254</v>
       </c>
       <c r="D4">
-        <v>0.5465127627929747</v>
+        <v>0.443559775714621</v>
       </c>
       <c r="E4">
         <v>0.8091217199290309</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.07435827338766313</v>
+        <v>-0.08191624050633897</v>
       </c>
       <c r="D5">
-        <v>0.9407282613960093</v>
+        <v>0.9351936650984594</v>
       </c>
       <c r="E5">
         <v>0.8091217199290309</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.194451285102451</v>
+        <v>1.243339391685659</v>
       </c>
       <c r="D6">
-        <v>0.2323577059899984</v>
+        <v>0.2222482252978311</v>
       </c>
       <c r="E6">
         <v>0.8592252991987777</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.582391263865102</v>
+        <v>1.649449676781618</v>
       </c>
       <c r="D7">
-        <v>0.1136230356523389</v>
+        <v>0.1082659088089868</v>
       </c>
       <c r="E7">
         <v>0.8592252991987777</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.539556208896364</v>
+        <v>2.766396732371846</v>
       </c>
       <c r="D8">
-        <v>0.01112911866534794</v>
+        <v>0.009098627491888056</v>
       </c>
       <c r="E8">
         <v>0.8592252991987777</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.4675668337883361</v>
+        <v>0.6775427581358235</v>
       </c>
       <c r="D9">
-        <v>0.6401146065050072</v>
+        <v>0.5026464416077001</v>
       </c>
       <c r="E9">
         <v>0.8320658028881245</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.9703588866754348</v>
+        <v>0.8627006967195744</v>
       </c>
       <c r="D10">
-        <v>0.3319142080136586</v>
+        <v>0.3943466422042712</v>
       </c>
       <c r="E10">
         <v>0.8320658028881245</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.5380682033390866</v>
+        <v>0.4877470573379163</v>
       </c>
       <c r="D11">
-        <v>0.5905537271902377</v>
+        <v>0.6288595266659827</v>
       </c>
       <c r="E11">
         <v>0.8222310127561169</v>
